--- a/devis/Devis_OpcaDefi_Forfait_florian_01_2017_II.xlsx
+++ b/devis/Devis_OpcaDefi_Forfait_florian_01_2017_II.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Florian CHAUMEIL</t>
   </si>
@@ -211,6 +211,33 @@
   </si>
   <si>
     <t>-      Suivi debug en relation avec Globalys</t>
+  </si>
+  <si>
+    <t>verifs nettoyage globalis</t>
+  </si>
+  <si>
+    <t>mise à jour Uplink (option grp fin, cout, grp fin)</t>
+  </si>
+  <si>
+    <t>support ticket suite à erreur attdif</t>
+  </si>
+  <si>
+    <t>cartographie des flux synchro</t>
+  </si>
+  <si>
+    <t>accompagnement/transfert connaissance/Qualificator WPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifs </t>
+  </si>
+  <si>
+    <t>-       vues  dossiers synchronisables</t>
+  </si>
+  <si>
+    <t>-       vues  cpro/stage replace . Par ,</t>
+  </si>
+  <si>
+    <t>debug Cpro tuteur manquant</t>
   </si>
 </sst>
 </file>
@@ -223,7 +250,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-407]"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +407,12 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -562,9 +595,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -575,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -649,10 +680,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -665,7 +693,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -686,24 +713,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1020,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,9 +1066,9 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="40" t="s">
         <v>51</v>
       </c>
@@ -1053,11 +1077,11 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="71" t="s">
+      <c r="F2" s="68"/>
+      <c r="G2" s="67" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1072,7 +1096,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">TODAY()</f>
-        <v>42776</v>
+        <v>42807</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="9" t="s">
@@ -1200,8 +1224,8 @@
         <v>11</v>
       </c>
       <c r="B14" s="35">
-        <f>SUM(E24:E33)</f>
-        <v>11</v>
+        <f>SUM(E24:E45)</f>
+        <v>16.75</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>12</v>
@@ -1240,7 +1264,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
-      <c r="L16" s="61"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
     </row>
@@ -1312,16 +1336,16 @@
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="55" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="66"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="37" t="s">
         <v>38</v>
       </c>
@@ -1334,16 +1358,16 @@
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="79">
+      <c r="C24" s="26"/>
+      <c r="D24" s="74">
         <v>42766</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="67"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="31">
         <f>SUM(E24:E27)*B15</f>
         <v>1560</v>
@@ -1361,12 +1385,12 @@
         <v>54</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="56">
+      <c r="C25" s="27"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="78">
         <v>1</v>
       </c>
-      <c r="F25" s="68"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="28"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
@@ -1381,12 +1405,12 @@
         <v>59</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="56">
+      <c r="C26" s="27"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="78">
         <v>2</v>
       </c>
-      <c r="F26" s="68"/>
+      <c r="F26" s="64"/>
       <c r="G26" s="28"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
@@ -1397,60 +1421,60 @@
       <c r="N26" s="27"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="51" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="56">
+      <c r="C27" s="27"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="78">
         <v>2</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="64"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="62"/>
+      <c r="H27" s="58"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
-      <c r="K27" s="63"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
-      <c r="N27" s="60"/>
+      <c r="N27" s="56"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="71" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="74">
+      <c r="C28" s="26"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="79">
         <v>1</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="78">
+      <c r="F28" s="70"/>
+      <c r="G28" s="73">
         <f>SUM(E28:E28)*$B$15</f>
         <v>312</v>
       </c>
-      <c r="H28" s="64"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
-      <c r="L28" s="65"/>
+      <c r="L28" s="61"/>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="26"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="68"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="31">
-        <f>SUM(E29:E33)*$B$15</f>
-        <v>1560</v>
+        <f>SUM(E29:E45)*$B$15</f>
+        <v>3354</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -1465,12 +1489,12 @@
         <v>60</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="47">
+      <c r="C30" s="27"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="78">
         <v>2</v>
       </c>
-      <c r="F30" s="68"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="31"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1478,12 +1502,12 @@
         <v>57</v>
       </c>
       <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="47">
+      <c r="C31" s="27"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="78">
         <v>1</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="31"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1491,152 +1515,295 @@
         <v>55</v>
       </c>
       <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="47">
+      <c r="C32" s="27"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="78">
         <v>1</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="72" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="48">
+      <c r="C33" s="29"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="80">
         <v>1</v>
       </c>
-      <c r="F33" s="69"/>
+      <c r="F33" s="65"/>
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="15" t="s">
+      <c r="A34" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="64"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="75"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="75"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F37" s="64"/>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="64"/>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="64"/>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="64"/>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="81"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="64"/>
+      <c r="G42" s="28"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="78">
+        <v>1</v>
+      </c>
+      <c r="F43" s="64"/>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="78">
+        <v>1</v>
+      </c>
+      <c r="F44" s="64"/>
+      <c r="G44" s="31"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="80">
+        <v>1</v>
+      </c>
+      <c r="F45" s="65"/>
+      <c r="G45" s="30"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="33">
-        <f>SUM(G24:G33)</f>
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="41" t="s">
+      <c r="G46" s="33">
+        <f>SUM(G24:G45)</f>
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="42" t="s">
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="43">
+      <c r="G48" s="43">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="15"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="45" t="s">
+    <row r="49" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="15"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="36"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F50" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="46">
-        <f>G34+G36</f>
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="34" t="s">
+      <c r="G50" s="46">
+        <f>G46+G48</f>
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D24:D33"/>
-  </mergeCells>
   <pageMargins left="0.625" right="0.44791666666666669" top="0.48958333333333331" bottom="0.33088235294117646" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -1723,7 +1890,7 @@
       <c r="E11" s="2">
         <v>720</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="50">
         <f>E11/E10</f>
         <v>0.23076923076923078</v>
       </c>
@@ -1837,7 +2004,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="27"/>
@@ -1857,7 +2024,7 @@
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="38"/>
-      <c r="F24" s="56">
+      <c r="F24" s="53">
         <v>2</v>
       </c>
       <c r="G24" s="27"/>
@@ -1870,7 +2037,7 @@
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="56">
+      <c r="F25" s="53">
         <v>3</v>
       </c>
       <c r="G25" s="27"/>
